--- a/Tarea 3 P2.xlsx
+++ b/Tarea 3 P2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" tabRatio="590" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" tabRatio="590" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -587,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -4487,7 +4487,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:F2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -11273,7 +11273,7 @@
   </sheetPr>
   <dimension ref="A1:Y220"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Tarea 3 P2.xlsx
+++ b/Tarea 3 P2.xlsx
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>-1987.898134603012</v>
+        <v>1987.898134603012</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>1037.691123939637</v>
+        <v>-1037.691123939637</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>-1846.520763029876</v>
+        <v>1846.520763029876</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>-1356.464074238219</v>
+        <v>1356.464074238219</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -39140,10 +39140,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="22" t="n">
-        <v>-3834.4189</v>
+        <v>3834.4189</v>
       </c>
       <c r="B2" s="22" t="n">
-        <v>-318.773</v>
+        <v>318.773</v>
       </c>
       <c r="C2" s="22" t="n">
         <v>3834.4189</v>
@@ -39152,10 +39152,10 @@
         <v>318.773</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-7668.837795265779</v>
+        <v>-3.183231456205249e-12</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>-637.5459005971632</v>
+        <v>1.591615728102624e-12</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
